--- a/data/trans_orig/CAMINAR_DIAS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_DIAS-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de días en los que se camina</t>
+          <t>Nº medio de días en los que se camina (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAMINAR_DIAS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_DIAS-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 5,8</t>
+          <t>4,95; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 4,73</t>
+          <t>4,0; 4,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 5,79</t>
+          <t>4,42; 5,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 4,99</t>
+          <t>4,32; 5,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 3,84</t>
+          <t>3,34; 3,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,78</t>
+          <t>3,61; 4,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 5,19</t>
+          <t>4,66; 5,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 4,07</t>
+          <t>3,67; 4,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 5,12</t>
+          <t>4,15; 5,14</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 5,78</t>
+          <t>5,41; 5,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 5,34</t>
+          <t>4,94; 5,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 5,68</t>
+          <t>5,41; 5,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,74</t>
+          <t>4,45; 5,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 5,49</t>
+          <t>5,12; 5,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 5,69</t>
+          <t>5,47; 5,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 5,47</t>
+          <t>4,71; 5,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 5,37</t>
+          <t>5,09; 5,36</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 5,84</t>
+          <t>5,47; 5,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,35</t>
+          <t>4,87; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 5,53</t>
+          <t>5,1; 5,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 5,95</t>
+          <t>5,64; 6,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,31</t>
+          <t>4,95; 5,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 5,76</t>
+          <t>5,4; 5,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 5,85</t>
+          <t>5,64; 5,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 5,27</t>
+          <t>4,95; 5,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 5,6</t>
+          <t>5,32; 5,61</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 5,74</t>
+          <t>5,46; 5,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,32</t>
+          <t>4,85; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 5,36</t>
+          <t>5,04; 5,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 5,56</t>
+          <t>5,41; 5,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 5,36</t>
+          <t>4,43; 5,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 5,43</t>
+          <t>5,16; 5,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 5,62</t>
+          <t>5,47; 5,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 5,35</t>
+          <t>5,14; 5,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CAMINAR_DIAS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_DIAS-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,31</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>4,69</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>4,93</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,93; 4,63</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 5,79</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 4,81</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>4,95; 5,63</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 4,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 4,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 5,79</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>3,31; 3,77</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 4,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 4,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>4,32; 5,04</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 3,83</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 4,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 4,85</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>3,62; 4,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 5,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 4,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>4,66; 5,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 4,07</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 4,62</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 5,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,6</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>5,56</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,23</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>5,58</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,82; 5,14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 5,34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 5,15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>5,41; 5,72</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 5,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 5,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 5,34</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>4,63; 4,9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 5,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 5,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>5,41; 5,68</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,45; 5,72</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 5,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 5,51</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>4,77; 4,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 5,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 5,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>5,47; 5,67</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 5,43</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 5,14</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,09; 5,36</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,7</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,58</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>5,84</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>5,14</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>5,78</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,9; 5,38</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 5,54</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 4,88</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>5,47; 5,89</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 5,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 4,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 5,54</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>4,96; 5,37</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 5,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 5,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>5,64; 6,0</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 5,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 5,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,4; 5,76</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>4,97; 5,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 5,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 4,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>5,64; 5,9</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 5,29</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 4,91</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 5,61</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>5,6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>5,52</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5,56</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,79; 5,06</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 5,34</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 4,96</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>5,46; 5,7</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 5,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 4,96</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 5,34</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>4,51; 4,7</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 5,44</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 5,01</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>5,41; 5,62</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 5,4</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 5,01</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 5,44</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>4,69; 4,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 5,35</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 4,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>5,47; 5,63</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 5,22</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 4,96</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>5,14; 5,35</t>
         </is>
       </c>
     </row>
